--- a/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验报告.xlsx
+++ b/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验报告.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="自准法测量三棱镜顶角" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
   <si>
     <t>自准法测量三棱镜顶角</t>
   </si>
@@ -46,22 +47,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="思源黑体 CN"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -74,8 +74,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,9 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,96 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,49 +231,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,13 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,31 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,79 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,23 +443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,11 +488,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,152 +542,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,14 +687,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
@@ -1022,227 +1018,227 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
         <v>77</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>257</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>197</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>77</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>257</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
         <v>197</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
         <v>17</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
         <v>77</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>257</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
         <v>197</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>17</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:4">
-      <c r="A15" s="5">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
         <v>77</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
         <v>257</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
         <v>197</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>36</v>
       </c>
     </row>
@@ -1254,7 +1250,8 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1262,192 +1259,300 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1024" width="7.83333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
         <v>83</v>
       </c>
-      <c r="D3" s="6">
-        <v>35</v>
+      <c r="D3" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>263</v>
       </c>
-      <c r="D4" s="6">
-        <v>35</v>
+      <c r="D4" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>263</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>263</v>
+      </c>
+      <c r="D12" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>203</v>
+      </c>
+      <c r="D13" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>263</v>
+      </c>
+      <c r="D16" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>203</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>83</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>263</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>203</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>